--- a/designs/Pufferfish-Interface-1/reference/Interface Bill of Materials v1.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface Bill of Materials v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A71139-31B4-BB4E-8D47-424018399824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9540C-BF19-5743-8301-6E2FF8FB3049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Final v1 BOM" sheetId="3" r:id="rId1"/>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131DD1F5-2D4C-E442-8F86-7404B3B2C5A6}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934F02-491B-6E43-B7D3-DDC0BF2B7083}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2811,8 +2811,8 @@
       <c r="C8" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>118</v>
+      <c r="D8" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="14" t="s">
